--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,30 +46,27 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
@@ -82,94 +79,100 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>safety</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
+    <t>essential</t>
   </si>
   <si>
     <t>online</t>
@@ -187,6 +190,9 @@
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
@@ -196,10 +202,10 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -706,16 +712,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -735,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7368421052631579</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -785,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7226027397260274</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C6">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8392857142857143</v>
+        <v>0.859375</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="M6">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -835,37 +841,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6410256410256411</v>
+        <v>0.4466019417475728</v>
       </c>
       <c r="C7">
+        <v>230</v>
+      </c>
+      <c r="D7">
+        <v>231</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>285</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K7">
-        <v>0.8309859154929577</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.44</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8125</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.439922480620155</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C9">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4161073825503356</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>0.8085106382978723</v>
@@ -1035,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3896103896103896</v>
+        <v>0.3375</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3544973544973545</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C12">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,37 +1141,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3333333333333333</v>
+        <v>0.2908366533864542</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.775</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2777777777777778</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,69 +1209,45 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14">
+        <v>0.7735849056603774</v>
+      </c>
+      <c r="L14">
+        <v>82</v>
+      </c>
+      <c r="M14">
+        <v>82</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K14">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L14">
-        <v>40</v>
-      </c>
-      <c r="M14">
-        <v>40</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.1662198391420912</v>
-      </c>
-      <c r="C15">
-        <v>62</v>
-      </c>
-      <c r="D15">
-        <v>62</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>311</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.73125</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.70625</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1329,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.6808510638297872</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L18">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1355,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.6631853785900783</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L19">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="M19">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1381,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>129</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1407,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6222222222222222</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1433,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6046511627906976</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1459,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.5941176470588235</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L23">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M23">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1485,21 +1467,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.5842696629213483</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L24">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="M24">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1511,21 +1493,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.58</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1537,21 +1519,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5288135593220339</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L26">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="M26">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1563,21 +1545,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>139</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5128205128205128</v>
+        <v>0.515625</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1589,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5104602510460251</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="L28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M28">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1615,47 +1597,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5068493150684932</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L29">
+        <v>36</v>
+      </c>
+      <c r="M29">
+        <v>36</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>37</v>
-      </c>
-      <c r="M29">
-        <v>37</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.46875</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1667,15 +1649,15 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.4307692307692308</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L31">
         <v>28</v>
@@ -1693,21 +1675,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.4</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1719,47 +1701,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.1774580335731415</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L33">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>343</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.1682692307692308</v>
+        <v>0.2047244094488189</v>
       </c>
       <c r="L34">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1771,21 +1753,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>346</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.1534883720930233</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1797,21 +1779,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>182</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.1302325581395349</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1823,73 +1805,73 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>187</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.1019036954087346</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="L37">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="N37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>802</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.09888888888888889</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="L38">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>811</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.08247422680412371</v>
+        <v>0.1143497757847534</v>
       </c>
       <c r="L39">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="M39">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="N39">
         <v>0.98</v>
@@ -1901,163 +1883,241 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>445</v>
+        <v>790</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.07882534775888717</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L40">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>596</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.07035755478662054</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="L41">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="M41">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>806</v>
+        <v>812</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.07015065913370998</v>
+        <v>0.09297520661157024</v>
       </c>
       <c r="L42">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="M42">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="N42">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>1975</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.0369290573372206</v>
+        <v>0.07716049382716049</v>
       </c>
       <c r="L43">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="M43">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="N43">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.15</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2973</v>
+        <v>598</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.03121748178980229</v>
+        <v>0.07102539981185324</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="M44">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="N44">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="O44">
-        <v>0.1899999999999999</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>931</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45">
+        <v>0.05889145496535797</v>
+      </c>
+      <c r="L45">
+        <v>51</v>
+      </c>
+      <c r="M45">
+        <v>52</v>
+      </c>
+      <c r="N45">
+        <v>0.98</v>
+      </c>
+      <c r="O45">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K45">
-        <v>0.02045311516677156</v>
-      </c>
-      <c r="L45">
+      <c r="K46">
+        <v>0.04053177691309987</v>
+      </c>
+      <c r="L46">
+        <v>125</v>
+      </c>
+      <c r="M46">
+        <v>148</v>
+      </c>
+      <c r="N46">
+        <v>0.84</v>
+      </c>
+      <c r="O46">
+        <v>0.16</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M45">
-        <v>88</v>
-      </c>
-      <c r="N45">
+      <c r="K47">
+        <v>0.03556485355648536</v>
+      </c>
+      <c r="L47">
+        <v>34</v>
+      </c>
+      <c r="M47">
+        <v>46</v>
+      </c>
+      <c r="N47">
         <v>0.74</v>
       </c>
-      <c r="O45">
+      <c r="O47">
         <v>0.26</v>
       </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>3113</v>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48">
+        <v>0.02581051306263771</v>
+      </c>
+      <c r="L48">
+        <v>82</v>
+      </c>
+      <c r="M48">
+        <v>106</v>
+      </c>
+      <c r="N48">
+        <v>0.77</v>
+      </c>
+      <c r="O48">
+        <v>0.23</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>3095</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,18 +55,18 @@
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>risk</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -88,55 +88,61 @@
     <t>best</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>important</t>
   </si>
   <si>
     <t>like</t>
@@ -145,43 +151,46 @@
     <t>help</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>essential</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>home</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>new</t>
@@ -190,21 +199,21 @@
     <t>store</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>supermarket</t>
   </si>
   <si>
@@ -215,6 +224,9 @@
   </si>
   <si>
     <t>corona</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -572,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +595,7 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>21</v>
@@ -691,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7191780821917808</v>
+        <v>0.7294520547945206</v>
       </c>
       <c r="C5">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D5">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +827,13 @@
         <v>24</v>
       </c>
       <c r="K6">
-        <v>0.859375</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="M6">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4466019417475728</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="C7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D7">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,22 +868,22 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4429530201342282</v>
+        <v>0.44</v>
       </c>
       <c r="C8">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4266666666666667</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8098591549295775</v>
+        <v>0.8203125</v>
       </c>
       <c r="L9">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M9">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3492063492063492</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C10">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8085106382978723</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3375</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K11">
-        <v>0.7931034482758621</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1127,13 @@
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.7843137254901961</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,37 +1153,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2908366533864542</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1689008042895442</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C14">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7735849056603774</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1253,13 @@
         <v>33</v>
       </c>
       <c r="K15">
-        <v>0.73125</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L15">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="M15">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1279,13 @@
         <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7142857142857143</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1285,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1293,13 +1305,13 @@
         <v>35</v>
       </c>
       <c r="K17">
-        <v>0.7</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1311,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1319,13 +1331,13 @@
         <v>36</v>
       </c>
       <c r="K18">
-        <v>0.6944444444444444</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1337,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1345,13 +1357,13 @@
         <v>37</v>
       </c>
       <c r="K19">
-        <v>0.6702127659574468</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1363,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1371,13 +1383,13 @@
         <v>38</v>
       </c>
       <c r="K20">
-        <v>0.6511627906976745</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1389,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1397,13 +1409,13 @@
         <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6475195822454308</v>
+        <v>0.6710182767624021</v>
       </c>
       <c r="L21">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M21">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1415,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1423,13 +1435,13 @@
         <v>40</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1449,13 +1461,13 @@
         <v>41</v>
       </c>
       <c r="K23">
-        <v>0.5852941176470589</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L23">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1467,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1475,13 +1487,13 @@
         <v>42</v>
       </c>
       <c r="K24">
-        <v>0.5728813559322034</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L24">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1493,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>126</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1501,13 +1513,13 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>0.5555555555555556</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1519,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1527,13 +1539,13 @@
         <v>44</v>
       </c>
       <c r="K26">
-        <v>0.5393258426966292</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L26">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="M26">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1545,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1553,13 +1565,13 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>0.515625</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L27">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1571,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1579,13 +1591,13 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>0.502092050209205</v>
+        <v>0.5355648535564853</v>
       </c>
       <c r="L28">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M28">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1597,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1605,13 +1617,13 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>0.4931506849315068</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1623,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1631,13 +1643,13 @@
         <v>48</v>
       </c>
       <c r="K30">
-        <v>0.4871794871794872</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1649,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1657,13 +1669,13 @@
         <v>49</v>
       </c>
       <c r="K31">
-        <v>0.459016393442623</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1675,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1683,13 +1695,13 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.4571428571428571</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1701,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1709,13 +1721,13 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4307692307692308</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1735,13 +1747,13 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>0.2047244094488189</v>
+        <v>0.46875</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1753,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1761,13 +1773,13 @@
         <v>53</v>
       </c>
       <c r="K35">
-        <v>0.1818181818181818</v>
+        <v>0.2362204724409449</v>
       </c>
       <c r="L35">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1779,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>342</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1787,13 +1799,13 @@
         <v>54</v>
       </c>
       <c r="K36">
-        <v>0.1634615384615385</v>
+        <v>0.1889952153110048</v>
       </c>
       <c r="L36">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M36">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1805,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1813,25 +1825,25 @@
         <v>55</v>
       </c>
       <c r="K37">
-        <v>0.1348837209302326</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1839,13 +1851,13 @@
         <v>56</v>
       </c>
       <c r="K38">
-        <v>0.1348837209302326</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1857,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>186</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1865,25 +1877,25 @@
         <v>57</v>
       </c>
       <c r="K39">
-        <v>0.1143497757847534</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="L39">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="N39">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>790</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1891,25 +1903,25 @@
         <v>58</v>
       </c>
       <c r="K40">
-        <v>0.1042944785276074</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1917,25 +1929,25 @@
         <v>59</v>
       </c>
       <c r="K41">
-        <v>0.09777777777777778</v>
+        <v>0.1314553990610329</v>
       </c>
       <c r="L41">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="N41">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="O41">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>812</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1943,25 +1955,25 @@
         <v>60</v>
       </c>
       <c r="K42">
-        <v>0.09297520661157024</v>
+        <v>0.1177130044843049</v>
       </c>
       <c r="L42">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="M42">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>439</v>
+        <v>787</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1969,25 +1981,25 @@
         <v>61</v>
       </c>
       <c r="K43">
-        <v>0.07716049382716049</v>
+        <v>0.09555555555555556</v>
       </c>
       <c r="L43">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="M43">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="N43">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O43">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>598</v>
+        <v>814</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1995,25 +2007,25 @@
         <v>62</v>
       </c>
       <c r="K44">
-        <v>0.07102539981185324</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L44">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="M44">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="N44">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1975</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2021,13 +2033,13 @@
         <v>63</v>
       </c>
       <c r="K45">
-        <v>0.05889145496535797</v>
+        <v>0.08453608247422681</v>
       </c>
       <c r="L45">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M45">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="N45">
         <v>0.98</v>
@@ -2039,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>815</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2047,25 +2059,25 @@
         <v>64</v>
       </c>
       <c r="K46">
-        <v>0.04053177691309987</v>
+        <v>0.08143322475570032</v>
       </c>
       <c r="L46">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="M46">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="N46">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0.16</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2959</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2073,25 +2085,25 @@
         <v>65</v>
       </c>
       <c r="K47">
-        <v>0.03556485355648536</v>
+        <v>0.07596899224806201</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M47">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="N47">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="O47">
-        <v>0.26</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>922</v>
+        <v>596</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2099,25 +2111,129 @@
         <v>66</v>
       </c>
       <c r="K48">
-        <v>0.02581051306263771</v>
+        <v>0.07167630057803469</v>
       </c>
       <c r="L48">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="M48">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="N48">
-        <v>0.77</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0.23</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>3095</v>
+        <v>803</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49">
+        <v>0.05179669796050502</v>
+      </c>
+      <c r="L49">
+        <v>160</v>
+      </c>
+      <c r="M49">
+        <v>178</v>
+      </c>
+      <c r="N49">
+        <v>0.9</v>
+      </c>
+      <c r="O49">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50">
+        <v>0.04248704663212435</v>
+      </c>
+      <c r="L50">
+        <v>41</v>
+      </c>
+      <c r="M50">
+        <v>44</v>
+      </c>
+      <c r="N50">
+        <v>0.93</v>
+      </c>
+      <c r="O50">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K51">
+        <v>0.02643171806167401</v>
+      </c>
+      <c r="L51">
+        <v>84</v>
+      </c>
+      <c r="M51">
+        <v>107</v>
+      </c>
+      <c r="N51">
+        <v>0.79</v>
+      </c>
+      <c r="O51">
+        <v>0.21</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K52">
+        <v>0.02422145328719723</v>
+      </c>
+      <c r="L52">
+        <v>28</v>
+      </c>
+      <c r="M52">
+        <v>33</v>
+      </c>
+      <c r="N52">
+        <v>0.85</v>
+      </c>
+      <c r="O52">
+        <v>0.15</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
